--- a/yearly_timetable.xlsx
+++ b/yearly_timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14372\Desktop\Syed\Dev\wlumsa\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4133181E-ECBA-44AF-9778-E87200777E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A3348A-BFF6-4597-AD22-45CFE462D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="539">
   <si>
     <r>
       <rPr>
@@ -5477,6 +5477,9 @@
       </rPr>
       <t>12:25</t>
     </r>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -5648,7 +5651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5723,6 +5726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6030,7 +6036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -8596,8 +8602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L36" sqref="A34:M36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9843,8 +9849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:L33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9861,8 +9867,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>1</v>
+      <c r="A1" s="25" t="s">
+        <v>538</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>2</v>
